--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2168431.47486469</v>
+        <v>2166096.363662709</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9722626.529948648</v>
+        <v>9722626.529948646</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.7114856347289</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>72.94942429078156</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>61.18421556648219</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.94563726208668</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>14.78481324925407</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>346.2805973438288</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>22.77504014555691</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>47.82814756577457</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>139.1755959712229</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>69.59007774115729</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.96439733653844</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.95030199542465</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U13" t="n">
-        <v>113.9549918517058</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>38.95525409458044</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>195.2208281702714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>36.43062059490413</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>148.1185786361432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>118.4651697467934</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>78.68827782033961</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>33.01627976944155</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>57.24347904696321</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>76.17049831699406</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.97607332171654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400657</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3907,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>42.20606459030861</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>114.512007517665</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460538</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460538</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460538</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,28 +4325,28 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872904</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103101</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.015525202711</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="C4" t="n">
-        <v>837.0793422748037</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624679</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800748</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821644</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>224.173197090443</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>75.43429895394925</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074498</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074498</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>281.0354892056661</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.84766053555</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.885143595139</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D5" t="n">
-        <v>874.6194449883883</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E5" t="n">
-        <v>488.8311923901441</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>481.8856916409406</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>66.18094136522944</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.31341879663</v>
+        <v>2000.825031735865</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.84766053555</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.84766053555</v>
+        <v>1277.580892319403</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>551.6025748766949</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>846.3061319081667</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>706.8033708781536</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C7" t="n">
-        <v>537.8671879502467</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>537.8671879502467</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1485.55145342263</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1262.572972617366</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>973.4546351212036</v>
       </c>
       <c r="V7" t="n">
-        <v>1337.233965749941</v>
+        <v>718.7701469153168</v>
       </c>
       <c r="W7" t="n">
-        <v>1337.233965749941</v>
+        <v>429.3529768783562</v>
       </c>
       <c r="X7" t="n">
-        <v>1109.244414851923</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="Y7" t="n">
-        <v>888.4518357083933</v>
+        <v>201.3634259803388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>939.4077790033375</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>939.4077790033375</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>553.6195264050932</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>546.6740256558897</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.335066174043</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>3049.335066174043</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>3049.335066174043</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2675.869307912963</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2285.729975937151</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,46 +4887,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.3980557622425</v>
+        <v>685.8122911638653</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343356</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219999</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1391.09371846696</v>
+        <v>1134.594421205413</v>
       </c>
       <c r="X10" t="n">
-        <v>1163.104167568943</v>
+        <v>906.6048703073955</v>
       </c>
       <c r="Y10" t="n">
-        <v>942.3115884254127</v>
+        <v>685.8122911638653</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5607,10 +5607,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>506.2737913123336</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,61 +5966,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6473,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
         <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516144</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>986.1256051221279</v>
+        <v>1031.26032167505</v>
       </c>
       <c r="C31" t="n">
-        <v>817.189422194221</v>
+        <v>862.324138747143</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>712.2074993348073</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>564.2944057524141</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X31" t="n">
-        <v>1388.566649095898</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.774069952368</v>
+        <v>1212.90878650529</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,64 +6923,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>904.4616873845483</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1501.8401750111</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258102</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.4315576023</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396413</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359452</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.340348461435</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7321,58 +7321,58 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
         <v>909.6271430859674</v>
@@ -7388,31 +7388,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>917.5010142286973</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>748.5648313007904</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>598.4481918884546</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>450.5350983060615</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>303.6451508081511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>136.4490515230311</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>186.5911984019043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.64270034434935</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8295,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>255.8421700460946</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7544012944567</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>30.48882721876572</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788706</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>110.003342051665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.46607471595161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>30.15030327141895</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>66.73277020259164</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7828069546814</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.4141550351007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.15184655856214</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>98.08864825591527</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>111.1976478713721</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835864.4801924287</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752543</v>
@@ -26329,7 +26329,7 @@
         <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752545</v>
@@ -26338,22 +26338,22 @@
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403382</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810782</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756552</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756577</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756653</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="O4" t="n">
+        <v>9337.200356756563</v>
+      </c>
+      <c r="P4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-749160.5465562616</v>
+        <v>-749160.5465562617</v>
       </c>
       <c r="C6" t="n">
         <v>365591.2370196583</v>
       </c>
       <c r="D6" t="n">
-        <v>206169.9670217666</v>
+        <v>206169.9670217661</v>
       </c>
       <c r="E6" t="n">
-        <v>149309.0927872356</v>
+        <v>149274.3548618004</v>
       </c>
       <c r="F6" t="n">
-        <v>474721.5545945906</v>
+        <v>474686.8166691547</v>
       </c>
       <c r="G6" t="n">
-        <v>474721.5545945905</v>
+        <v>474686.8166691548</v>
       </c>
       <c r="H6" t="n">
-        <v>474721.5545945905</v>
+        <v>474686.8166691551</v>
       </c>
       <c r="I6" t="n">
-        <v>474721.5545945909</v>
+        <v>474686.8166691551</v>
       </c>
       <c r="J6" t="n">
-        <v>307116.3767846081</v>
+        <v>307081.6388591722</v>
       </c>
       <c r="K6" t="n">
-        <v>474721.5545945906</v>
+        <v>474686.8166691548</v>
       </c>
       <c r="L6" t="n">
-        <v>426427.5845863999</v>
+        <v>426392.846660964</v>
       </c>
       <c r="M6" t="n">
-        <v>389666.5266590789</v>
+        <v>389631.7887336434</v>
       </c>
       <c r="N6" t="n">
-        <v>474721.5545945906</v>
+        <v>474686.816669155</v>
       </c>
       <c r="O6" t="n">
-        <v>474721.5545945906</v>
+        <v>474686.8166691548</v>
       </c>
       <c r="P6" t="n">
-        <v>474721.5545945904</v>
+        <v>474686.8166691549</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,19 +26814,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>295.2188844375329</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>313.288514365272</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>85.24974708008698</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>80.85095794181387</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2337393131513</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>39.95734131222474</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>123.6589225010123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>146.8343127959629</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>271.7461296822306</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>181.4050942177447</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85.86758284539886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320318</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-3.694951207129925e-13</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31841,10 +31841,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>353.3934907042769</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,22 +32792,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>553.3925020622929</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>508.8976500257891</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>618.3047484269334</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>652.3203287778402</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>466.5925882502527</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,22 +34448,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>506.5895320981975</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>336.3457189021236</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0158803980274</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>265.3222294678816</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895794</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>602.2300008170293</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>219.4190832899467</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>414.8381222824187</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>55.96455263125101</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>366.7636161037707</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>479.7503686470593</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>520.978616694507</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>332.6181808359224</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>205.0040068187903</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
